--- a/Development/Results/functional.form.xlsx
+++ b/Development/Results/functional.form.xlsx
@@ -23,49 +23,49 @@
     <t xml:space="preserve">PTH24u + Ca24u</t>
   </si>
   <si>
-    <t xml:space="preserve">217.5</t>
+    <t xml:space="preserve">205.9</t>
   </si>
   <si>
     <t xml:space="preserve">PTH24u + CorrCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">212.6</t>
+    <t xml:space="preserve">200.7</t>
   </si>
   <si>
     <t xml:space="preserve">PTH24u + dCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">223.9</t>
+    <t xml:space="preserve">211.1</t>
   </si>
   <si>
     <t xml:space="preserve">PTH24u + dCorrCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">220.8</t>
+    <t xml:space="preserve">207.9</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH + Ca24u</t>
   </si>
   <si>
-    <t xml:space="preserve">193.6</t>
+    <t xml:space="preserve">186.7</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH + CorrCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">190.5</t>
+    <t xml:space="preserve">182.7</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH + dCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">197.5</t>
+    <t xml:space="preserve">190.4</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH + dCorrCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">195.8</t>
+    <t xml:space="preserve">188.3</t>
   </si>
 </sst>
 </file>

--- a/Development/Results/functional.form.xlsx
+++ b/Development/Results/functional.form.xlsx
@@ -32,13 +32,13 @@
     <t xml:space="preserve">200.7</t>
   </si>
   <si>
-    <t xml:space="preserve">PTH24u + dCa24u</t>
+    <t xml:space="preserve">PTH24u + dCa</t>
   </si>
   <si>
     <t xml:space="preserve">211.1</t>
   </si>
   <si>
-    <t xml:space="preserve">PTH24u + dCorrCa24u</t>
+    <t xml:space="preserve">PTH24u + dCorrCa</t>
   </si>
   <si>
     <t xml:space="preserve">207.9</t>
@@ -56,13 +56,13 @@
     <t xml:space="preserve">182.7</t>
   </si>
   <si>
-    <t xml:space="preserve">dPTH + dCa24u</t>
+    <t xml:space="preserve">dPTH + dCa</t>
   </si>
   <si>
     <t xml:space="preserve">190.4</t>
   </si>
   <si>
-    <t xml:space="preserve">dPTH + dCorrCa24u</t>
+    <t xml:space="preserve">dPTH + dCorrCa</t>
   </si>
   <si>
     <t xml:space="preserve">188.3</t>
